--- a/biology/Botanique/Cèpe_des_pins/Cèpe_des_pins.xlsx
+++ b/biology/Botanique/Cèpe_des_pins/Cèpe_des_pins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_des_pins</t>
+          <t>Cèpe_des_pins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cèpe des pins est un nom vernaculaire ambigu et souvent utilisé à tort dans le langage courant qui peut désigner en français plusieurs espèces de champignons de la famille des Boletaceae et classés dans les genres Boletus, Suillus ou autres. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_des_pins</t>
+          <t>Cèpe_des_pins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ambiguïté</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette appellation de "Cèpe des pins" devrait désigner uniquement Boletus pinophilus, qui fait partie des quatre espèces "nobles" parmi les bolets ; les Cèpes. Inféodé aux conifères et excellent comestible, c'est parmi les quatre espèces de Cèpes la plus rare, parfois considérée comme la meilleure des quatre au niveau gastronomique.
 Cependant, le nom vernaculaire de "Cèpe des pins" est souvent employé à tort et en tant qu'abus de langage pour désigner d'autres bolets poussant sous les conifères (ou même non dans certains cas, cette utilisation abusive est assez arbitraire). Leur comestibilité et leur saveur varie considérablement d'une espèce à l'autre, mais en général, cette appellation mal utilisée de "Cèpe des pins" possédera une connotation négative. Lorsque ce terme n'est pas utilisé correctement pour désigner Boletus pinophilus, il est utilisé comme terme vague et inexact désignant tout bolet à l'aspect mou, gluant, verdâtre ou même bleuissant, cette description pouvant englober plus d'une cinquantaine d'espèces différentes, étant toutes plus au moins de faible intérêt gustatif, d'où la connotation négative du terme. 
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_des_pins</t>
+          <t>Cèpe_des_pins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,11 +565,13 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[1] en français. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Cèpe des pins - Boletus pinophilus. Le vrai Cèpe des pins pour lequel ce nom vernaculaire est correct. Nom normalisé par le Comité pour les noms français des champignons de la Société mycologique de France[2].
+Cèpe des pins - Boletus pinophilus. Le vrai Cèpe des pins pour lequel ce nom vernaculaire est correct. Nom normalisé par le Comité pour les noms français des champignons de la Société mycologique de France.
 "Cèpe des pins" - nom vulgaire utilisé abusivement pour Suillus bovinus, le Bolet des bouviers.
 "Cèpe des pins" - nom vulgaire utilisé abusivement pour Suillus granulatus, le Bolet granulé.
 "Cèpe des pins" - nom vulgaire utilisé abusivement pour Suillus collinitus, le Bolet à base rose.
